--- a/AOS_CreateAndDisplayOrder/Default.xlsx
+++ b/AOS_CreateAndDisplayOrder/Default.xlsx
@@ -17,13 +17,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3">
   <si>
-    <t>password_EncryptedText1</t>
+    <t>B</t>
   </si>
   <si>
-    <t>password_EncryptedText</t>
+    <t>C</t>
   </si>
   <si>
-    <t>username_Text</t>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -484,7 +484,7 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
@@ -498,10 +498,10 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
